--- a/biology/Zoologie/Crotalus_ruber/Crotalus_ruber.xlsx
+++ b/biology/Zoologie/Crotalus_ruber/Crotalus_ruber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalus ruber est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalus ruber est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 aux États-Unis dans le sud-ouest de la Californie ;
 au Mexique dans l'État de Basse-Californie.
 Elle est présente du niveau de la mer jusqu'à environ 1 500 m d'altitude.
@@ -545,10 +559,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Crotalus ruber mesure environ 100 cm, les plus grands mâles dépassant 140 cm (le plus grand spécimen connu mesurait 162 cm - Klauber, 1937).
-Ce serpent venimeux et vivipare[1] se nourrit de rongeurs (lapins, écureuils) et d'oiseaux, ainsi que de lézards et d'autres serpents (Wright, 1957).
+Ce serpent venimeux et vivipare se nourrit de rongeurs (lapins, écureuils) et d'oiseaux, ainsi que de lézards et d'autres serpents (Wright, 1957).
 La reproduction a lieu de février à avril. Les femelles donnent naissance en août à une portée de 3 à 20 petits qui mesurent environ 30 cm à la naissance.
 </t>
         </is>
@@ -578,9 +594,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (13 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (13 février 2014) :
 Crotalus ruber exsul Garman, 1884
 Crotalus ruber ruber Cope, 1892
 Crotalus ruber lorenzoensis Radcliffe &amp; Maslin, 1975
